--- a/Cuadros/univariado.xlsx
+++ b/Cuadros/univariado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JNA\WITM\WITM\Cuadros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A631F13-5BEA-4310-8D9E-6030C66479B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63F49FA-A8CD-486F-AB0D-3AE6ACE7F028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60600" yWindow="195" windowWidth="19290" windowHeight="18465" firstSheet="27" activeTab="38" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="q1" sheetId="1" r:id="rId1"/>
@@ -53,12 +53,25 @@
     <sheet name="q46" sheetId="38" r:id="rId38"/>
     <sheet name="q47" sheetId="39" r:id="rId39"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="415">
   <si>
     <t>Description</t>
   </si>
@@ -816,9 +829,6 @@
     <t>5 Higher than 80%</t>
   </si>
   <si>
-    <t>multirateral</t>
-  </si>
-  <si>
     <t>bilateral</t>
   </si>
   <si>
@@ -951,33 +961,6 @@
     <t>not_sure</t>
   </si>
   <si>
-    <t>Movement building</t>
-  </si>
-  <si>
-    <t>Narrative work</t>
-  </si>
-  <si>
-    <t>Legal action and reform</t>
-  </si>
-  <si>
-    <t>Research &amp; knowledge building</t>
-  </si>
-  <si>
-    <t>Responding to civic space crackdown/ urgent response work</t>
-  </si>
-  <si>
-    <t>Advocacy &amp; campaigns</t>
-  </si>
-  <si>
-    <t>Protests &amp; public mobilization</t>
-  </si>
-  <si>
-    <t>Cross-movement mobilizing and alliance building</t>
-  </si>
-  <si>
-    <t>Holistic safety and protection of activists at risk</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
@@ -1297,6 +1280,42 @@
   </si>
   <si>
     <t>Open to be contacted</t>
+  </si>
+  <si>
+    <t>0 Zero</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Multirateral</t>
+  </si>
+  <si>
+    <t>Movement building</t>
+  </si>
+  <si>
+    <t>Narrative work</t>
+  </si>
+  <si>
+    <t>Legal action and reform</t>
+  </si>
+  <si>
+    <t>Research &amp; knowledge building</t>
+  </si>
+  <si>
+    <t>Responding to civic space crackdown/ urgent response work</t>
+  </si>
+  <si>
+    <t>Advocacy &amp; campaigns</t>
+  </si>
+  <si>
+    <t>Protests &amp; public mobilization</t>
+  </si>
+  <si>
+    <t>Cross-movement mobilizing and alliance building</t>
+  </si>
+  <si>
+    <t>Holistic safety and protection of activists at risk</t>
   </si>
 </sst>
 </file>
@@ -1632,11 +1651,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1647,7 +1666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1658,7 +1677,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1679,11 +1698,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>216</v>
       </c>
@@ -1694,59 +1718,59 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>218</v>
       </c>
       <c r="B2">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="C2">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>219</v>
       </c>
       <c r="B3">
-        <v>322</v>
+        <v>385</v>
       </c>
       <c r="C3">
-        <v>34.200000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>32.799999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>220</v>
       </c>
       <c r="B4">
-        <v>172</v>
+        <v>221</v>
       </c>
       <c r="C4">
-        <v>18.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>221</v>
       </c>
       <c r="B5">
-        <v>185</v>
+        <v>226</v>
       </c>
       <c r="C5">
-        <v>19.600000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>222</v>
       </c>
       <c r="B6">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="C6">
-        <v>12.4</v>
+        <v>13.5</v>
       </c>
     </row>
   </sheetData>
@@ -1757,13 +1781,15 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>223</v>
       </c>
@@ -1776,131 +1802,161 @@
       <c r="D1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>227</v>
       </c>
       <c r="B2">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="C2">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="D2">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+      <c r="E2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>228</v>
       </c>
       <c r="B3">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="C3">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="D3">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+      <c r="E3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>229</v>
       </c>
       <c r="B4">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C4">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="D4">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+      <c r="E4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>230</v>
       </c>
       <c r="B5">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="C5">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="D5">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+      <c r="E5">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>231</v>
       </c>
       <c r="B6">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C6">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D6">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+      <c r="E6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>232</v>
       </c>
       <c r="B7">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="C7">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="D7">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+      <c r="E7">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>233</v>
       </c>
       <c r="B8">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="C8">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="D8">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+      <c r="E8">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>234</v>
       </c>
       <c r="B9">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="E9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>235</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C10">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>60</v>
+      </c>
+      <c r="E10">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1913,11 +1969,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>236</v>
       </c>
@@ -1928,59 +1989,59 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>237</v>
       </c>
       <c r="B2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C2">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>238</v>
       </c>
       <c r="B3">
-        <v>142</v>
+        <v>185</v>
       </c>
       <c r="C3">
-        <v>19.600000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>239</v>
       </c>
       <c r="B4">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="C4">
-        <v>19.899999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>240</v>
       </c>
       <c r="B5">
-        <v>170</v>
+        <v>218</v>
       </c>
       <c r="C5">
-        <v>23.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>241</v>
       </c>
       <c r="B6">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1993,11 +2054,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>242</v>
       </c>
@@ -2008,26 +2071,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>244</v>
       </c>
       <c r="B2">
-        <v>294</v>
+        <v>343</v>
       </c>
       <c r="C2">
-        <v>31.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>245</v>
       </c>
       <c r="B3">
-        <v>648</v>
+        <v>831</v>
       </c>
       <c r="C3">
-        <v>68.8</v>
+        <v>70.8</v>
       </c>
     </row>
   </sheetData>
@@ -2038,13 +2101,18 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>246</v>
       </c>
@@ -2058,74 +2126,88 @@
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B2">
+        <v>87</v>
+      </c>
+      <c r="C2">
+        <v>56</v>
+      </c>
+      <c r="D2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>247</v>
       </c>
-      <c r="B2">
-        <v>101</v>
-      </c>
-      <c r="C2">
-        <v>99</v>
-      </c>
-      <c r="D2">
+      <c r="B3">
+        <v>117</v>
+      </c>
+      <c r="C3">
+        <v>115</v>
+      </c>
+      <c r="D3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B4">
+        <v>80</v>
+      </c>
+      <c r="C4">
+        <v>87</v>
+      </c>
+      <c r="D4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B5">
         <v>83</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B3">
-        <v>69</v>
-      </c>
-      <c r="C3">
-        <v>71</v>
-      </c>
-      <c r="D3">
+      <c r="C5">
         <v>82</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>249</v>
-      </c>
-      <c r="B4">
-        <v>70</v>
-      </c>
-      <c r="C4">
-        <v>74</v>
-      </c>
-      <c r="D4">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="D5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>250</v>
       </c>
-      <c r="B5">
-        <v>88</v>
-      </c>
-      <c r="C5">
-        <v>120</v>
-      </c>
-      <c r="D5">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>107</v>
+      </c>
+      <c r="C6">
+        <v>144</v>
+      </c>
+      <c r="D6">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>251</v>
       </c>
-      <c r="B6">
-        <v>215</v>
-      </c>
-      <c r="C6">
-        <v>231</v>
-      </c>
-      <c r="D6">
-        <v>259</v>
+      <c r="B7">
+        <v>311</v>
+      </c>
+      <c r="C7">
+        <v>336</v>
+      </c>
+      <c r="D7">
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -2139,12 +2221,15 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D1" sqref="D1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -2152,84 +2237,84 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
       <c r="B2">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>252</v>
+        <v>405</v>
       </c>
       <c r="B3">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B4">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B6">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B7">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="B8">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B9">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="B10">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>260</v>
+        <v>35</v>
       </c>
       <c r="B11">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2242,11 +2327,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -2254,92 +2344,92 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
       <c r="B2">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>261</v>
       </c>
-      <c r="B3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>262</v>
       </c>
-      <c r="B4">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>263</v>
       </c>
-      <c r="B5">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>264</v>
       </c>
-      <c r="B6">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>265</v>
       </c>
-      <c r="B7">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B8">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>266</v>
       </c>
-      <c r="B8">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="B9">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>267</v>
       </c>
-      <c r="B9">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>268</v>
-      </c>
       <c r="B10">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
       <c r="B11">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B12">
-        <v>67</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2352,11 +2442,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:G1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -2364,92 +2456,92 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
       <c r="B2">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>261</v>
       </c>
-      <c r="B4">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>262</v>
       </c>
-      <c r="B5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>263</v>
       </c>
-      <c r="B6">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>264</v>
       </c>
-      <c r="B7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>265</v>
       </c>
-      <c r="B8">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="B9">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>266</v>
       </c>
-      <c r="B9">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>267</v>
-      </c>
       <c r="B10">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B11">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
       <c r="B12">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2462,11 +2554,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:G26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -2474,60 +2571,60 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
       <c r="B2">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>271</v>
       </c>
-      <c r="B3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>272</v>
       </c>
-      <c r="B4">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>273</v>
       </c>
-      <c r="B5">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>274</v>
       </c>
-      <c r="B6">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>275</v>
-      </c>
       <c r="B7">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
       <c r="B8">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2540,13 +2637,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:I27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2555,92 +2654,92 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>277</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>29</v>
+      </c>
+      <c r="C3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>278</v>
       </c>
-      <c r="B3">
-        <v>19</v>
-      </c>
-      <c r="C3">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>98</v>
+      </c>
+      <c r="C4">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>279</v>
       </c>
-      <c r="B4">
-        <v>65</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>99</v>
+      </c>
+      <c r="C5">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>280</v>
       </c>
-      <c r="B5">
-        <v>70</v>
-      </c>
-      <c r="C5">
-        <v>10.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>152</v>
+      </c>
+      <c r="C6">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>281</v>
       </c>
-      <c r="B6">
-        <v>114</v>
-      </c>
-      <c r="C6">
-        <v>17.600000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>306</v>
+      </c>
+      <c r="C7">
+        <v>36.799999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>282</v>
       </c>
-      <c r="B7">
-        <v>260</v>
-      </c>
-      <c r="C7">
-        <v>40.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B8">
+        <v>103</v>
+      </c>
+      <c r="C8">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>283</v>
       </c>
-      <c r="B8">
-        <v>84</v>
-      </c>
-      <c r="C8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>284</v>
-      </c>
       <c r="B9">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C9">
-        <v>5.4</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2653,11 +2752,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2668,7 +2769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2679,7 +2780,7 @@
         <v>72.7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2690,7 +2791,7 @@
         <v>68.099999999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2701,7 +2802,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2712,7 +2813,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2723,7 +2824,7 @@
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2734,7 +2835,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2745,7 +2846,7 @@
         <v>31.3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2756,7 +2857,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -2767,7 +2868,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -2778,7 +2879,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -2789,7 +2890,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -2800,7 +2901,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -2811,7 +2912,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -2822,7 +2923,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -2833,7 +2934,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -2844,7 +2945,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -2855,7 +2956,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -2866,7 +2967,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -2877,7 +2978,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -2888,7 +2989,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -2899,7 +3000,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2910,7 +3011,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -2921,7 +3022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -2932,7 +3033,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -2943,7 +3044,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -2954,7 +3055,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -2965,7 +3066,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -2976,7 +3077,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -2987,7 +3088,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -2998,7 +3099,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -3009,7 +3110,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -3030,11 +3131,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -3042,84 +3148,84 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
       <c r="B2">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>285</v>
       </c>
-      <c r="B3">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>286</v>
       </c>
-      <c r="B4">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>287</v>
       </c>
-      <c r="B5">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>288</v>
       </c>
-      <c r="B6">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>289</v>
       </c>
-      <c r="B7">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>290</v>
       </c>
-      <c r="B8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="B9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>291</v>
       </c>
-      <c r="B9">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>292</v>
-      </c>
       <c r="B10">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
       <c r="B11">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -3132,13 +3238,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3147,48 +3255,48 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2">
-        <v>432</v>
+        <v>552</v>
       </c>
       <c r="C2">
-        <v>66.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>66.400000000000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
       <c r="B3">
-        <v>181</v>
+        <v>229</v>
       </c>
       <c r="C3">
-        <v>27.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B4">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C4">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
     </row>
   </sheetData>
@@ -3201,11 +3309,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -3213,100 +3326,100 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
       <c r="B2">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>253</v>
       </c>
-      <c r="B4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>254</v>
       </c>
-      <c r="B5">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>255</v>
       </c>
-      <c r="B6">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>256</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>257</v>
       </c>
-      <c r="B8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="B9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>258</v>
       </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="B10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>259</v>
       </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>260</v>
-      </c>
       <c r="B11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>244</v>
       </c>
       <c r="B12">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3319,11 +3432,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:H1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -3331,92 +3446,92 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
       <c r="B2">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>297</v>
+        <v>406</v>
       </c>
       <c r="B3">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>298</v>
+        <v>407</v>
       </c>
       <c r="B4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>408</v>
+      </c>
+      <c r="B5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>409</v>
+      </c>
+      <c r="B6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>410</v>
+      </c>
+      <c r="B7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>411</v>
+      </c>
+      <c r="B8">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>412</v>
+      </c>
+      <c r="B9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>413</v>
+      </c>
+      <c r="B10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>414</v>
+      </c>
+      <c r="B11">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>299</v>
-      </c>
-      <c r="B5">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>300</v>
-      </c>
-      <c r="B6">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>301</v>
-      </c>
-      <c r="B7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>302</v>
-      </c>
-      <c r="B8">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>303</v>
-      </c>
-      <c r="B9">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>304</v>
-      </c>
-      <c r="B10">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>305</v>
-      </c>
-      <c r="B11">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -3429,14 +3544,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:I1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6328125" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -3444,100 +3561,100 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
       <c r="B2">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="B3">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="B4">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B5">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>299</v>
+      </c>
+      <c r="B6">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B7">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>301</v>
+      </c>
+      <c r="B8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B9">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>303</v>
+      </c>
+      <c r="B10">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>309</v>
-      </c>
-      <c r="B6">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>310</v>
-      </c>
-      <c r="B7">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>311</v>
-      </c>
-      <c r="B8">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>312</v>
-      </c>
-      <c r="B9">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>313</v>
-      </c>
-      <c r="B10">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>314</v>
-      </c>
       <c r="B11">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="B12">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
       <c r="B13">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3550,13 +3667,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3565,59 +3684,59 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="B2">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="C2">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="B3">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="C3">
-        <v>34.299999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>32.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="B4">
-        <v>195</v>
+        <v>262</v>
       </c>
       <c r="C4">
-        <v>27.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="B5">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="C5">
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="B6">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C6">
-        <v>11.1</v>
+        <v>10.1</v>
       </c>
     </row>
   </sheetData>
@@ -3630,13 +3749,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="B1" t="s">
         <v>43</v>
@@ -3645,59 +3766,59 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="B2">
-        <v>413</v>
+        <v>524</v>
       </c>
       <c r="C2">
-        <v>43.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>44.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="B3">
-        <v>344</v>
+        <v>416</v>
       </c>
       <c r="C3">
-        <v>36.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>35.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="B4">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="C4">
-        <v>11.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="B5">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C5">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="B6">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C6">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
     </row>
   </sheetData>
@@ -3710,11 +3831,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:G1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -3722,108 +3845,108 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
       <c r="B2">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B3">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B4">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B5">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>321</v>
+      </c>
+      <c r="B6">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>322</v>
+      </c>
+      <c r="B7">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B8">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>324</v>
+      </c>
+      <c r="B9">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>325</v>
+      </c>
+      <c r="B10">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>326</v>
+      </c>
+      <c r="B11">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>327</v>
+      </c>
+      <c r="B12">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>328</v>
       </c>
-      <c r="B3">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>329</v>
-      </c>
-      <c r="B4">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>330</v>
-      </c>
-      <c r="B5">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>331</v>
-      </c>
-      <c r="B6">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>332</v>
-      </c>
-      <c r="B7">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>333</v>
-      </c>
-      <c r="B8">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>334</v>
-      </c>
-      <c r="B9">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>335</v>
-      </c>
-      <c r="B10">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>336</v>
-      </c>
-      <c r="B11">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>337</v>
-      </c>
-      <c r="B12">
+      <c r="B13">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>338</v>
-      </c>
-      <c r="B13">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
       <c r="B14">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3836,162 +3959,164 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B2">
+        <v>444</v>
+      </c>
+      <c r="C2">
+        <v>483</v>
+      </c>
+      <c r="D2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B3">
+        <v>212</v>
+      </c>
+      <c r="C3">
+        <v>467</v>
+      </c>
+      <c r="D3">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B4">
+        <v>421</v>
+      </c>
+      <c r="C4">
+        <v>452</v>
+      </c>
+      <c r="D4">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B5">
+        <v>159</v>
+      </c>
+      <c r="C5">
+        <v>526</v>
+      </c>
+      <c r="D5">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B6">
+        <v>226</v>
+      </c>
+      <c r="C6">
+        <v>491</v>
+      </c>
+      <c r="D6">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>338</v>
+      </c>
+      <c r="B7">
+        <v>390</v>
+      </c>
+      <c r="C7">
+        <v>372</v>
+      </c>
+      <c r="D7">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>339</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B8">
+        <v>539</v>
+      </c>
+      <c r="C8">
+        <v>313</v>
+      </c>
+      <c r="D8">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>340</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B9">
+        <v>470</v>
+      </c>
+      <c r="C9">
+        <v>418</v>
+      </c>
+      <c r="D9">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>341</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B10">
+        <v>160</v>
+      </c>
+      <c r="C10">
+        <v>400</v>
+      </c>
+      <c r="D10">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B2">
-        <v>358</v>
-      </c>
-      <c r="C2">
-        <v>386</v>
-      </c>
-      <c r="D2">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B3">
-        <v>161</v>
-      </c>
-      <c r="C3">
-        <v>362</v>
-      </c>
-      <c r="D3">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>345</v>
-      </c>
-      <c r="B4">
-        <v>334</v>
-      </c>
-      <c r="C4">
-        <v>362</v>
-      </c>
-      <c r="D4">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>346</v>
-      </c>
-      <c r="B5">
-        <v>133</v>
-      </c>
-      <c r="C5">
-        <v>415</v>
-      </c>
-      <c r="D5">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>347</v>
-      </c>
-      <c r="B6">
-        <v>187</v>
-      </c>
-      <c r="C6">
-        <v>385</v>
-      </c>
-      <c r="D6">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>348</v>
-      </c>
-      <c r="B7">
-        <v>313</v>
-      </c>
-      <c r="C7">
-        <v>300</v>
-      </c>
-      <c r="D7">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>349</v>
-      </c>
-      <c r="B8">
-        <v>450</v>
-      </c>
-      <c r="C8">
-        <v>238</v>
-      </c>
-      <c r="D8">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>350</v>
-      </c>
-      <c r="B9">
-        <v>383</v>
-      </c>
-      <c r="C9">
-        <v>332</v>
-      </c>
-      <c r="D9">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>351</v>
-      </c>
-      <c r="B10">
-        <v>126</v>
-      </c>
-      <c r="C10">
-        <v>321</v>
-      </c>
-      <c r="D10">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>352</v>
-      </c>
       <c r="B11">
-        <v>219</v>
+        <v>272</v>
       </c>
       <c r="C11">
-        <v>359</v>
+        <v>449</v>
       </c>
       <c r="D11">
-        <v>320</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -4004,11 +4129,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:I1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -4016,84 +4143,84 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
       <c r="B2">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="B3">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B4">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="B6">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="B7">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="B8">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="B9">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="B10">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
       <c r="B11">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -4108,9 +4235,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -4121,7 +4248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -4132,7 +4259,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -4153,85 +4280,87 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="B1" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="C1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="B2">
-        <v>283</v>
+        <v>333</v>
       </c>
       <c r="C2">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>247</v>
       </c>
       <c r="B3">
-        <v>269</v>
+        <v>330</v>
       </c>
       <c r="C3">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>248</v>
       </c>
       <c r="B4">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="C4">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>249</v>
       </c>
       <c r="B5">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="C5">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>250</v>
       </c>
       <c r="B6">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="C6">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>251</v>
       </c>
       <c r="B7">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C7">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -4244,13 +4373,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="B1" t="s">
         <v>43</v>
@@ -4259,59 +4390,59 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="B2">
-        <v>191</v>
+        <v>233</v>
       </c>
       <c r="C2">
-        <v>33.299999999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B3">
-        <v>184</v>
+        <v>229</v>
       </c>
       <c r="C3">
-        <v>32.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="B4">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="C4">
-        <v>22.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="B5">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C5">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="B6">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C6">
-        <v>5.0999999999999996</v>
+        <v>5.9</v>
       </c>
     </row>
   </sheetData>
@@ -4324,13 +4455,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="B1" t="s">
         <v>43</v>
@@ -4339,34 +4472,34 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
       <c r="B2">
-        <v>449</v>
+        <v>555</v>
       </c>
       <c r="C2">
-        <v>47.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>47.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3">
-        <v>358</v>
+        <v>451</v>
       </c>
       <c r="C3">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>38.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="B4">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="C4">
         <v>14.3</v>
@@ -4382,11 +4515,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:I1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -4394,92 +4529,92 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
       <c r="B2">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="B3">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="B4">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="B5">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="B6">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="B7">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="B8">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="B9">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="B10">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="B11">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
       <c r="B12">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -4492,13 +4627,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="B1" t="s">
         <v>43</v>
@@ -4507,70 +4644,70 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="B2">
+        <v>175</v>
+      </c>
+      <c r="C2">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B3">
+        <v>213</v>
+      </c>
+      <c r="C3">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B4">
         <v>131</v>
       </c>
-      <c r="C2">
-        <v>13.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>383</v>
-      </c>
-      <c r="B3">
-        <v>175</v>
-      </c>
-      <c r="C3">
-        <v>18.600000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>384</v>
-      </c>
-      <c r="B4">
-        <v>107</v>
-      </c>
       <c r="C4">
-        <v>11.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="B5">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C5">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="B6">
-        <v>419</v>
+        <v>515</v>
       </c>
       <c r="C6">
-        <v>44.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>43.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
       <c r="B7">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C7">
-        <v>4.4000000000000004</v>
+        <v>4.8</v>
       </c>
     </row>
   </sheetData>
@@ -4581,15 +4718,17 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="B1" t="s">
         <v>43</v>
@@ -4598,50 +4737,51 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="B2">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="C2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="B3">
-        <v>306</v>
+        <v>385</v>
       </c>
       <c r="C3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="B4">
-        <v>484</v>
+        <v>572</v>
       </c>
       <c r="C4">
-        <v>52.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>49.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="B5">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C5">
-        <v>1.7</v>
-      </c>
-    </row>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4652,13 +4792,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="B1" t="s">
         <v>43</v>
@@ -4667,125 +4809,125 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B2">
+        <v>81</v>
+      </c>
+      <c r="C2">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B3">
+        <v>171</v>
+      </c>
+      <c r="C3">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B4">
+        <v>114</v>
+      </c>
+      <c r="C4">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>386</v>
+      </c>
+      <c r="B5">
+        <v>173</v>
+      </c>
+      <c r="C5">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>387</v>
+      </c>
+      <c r="B6">
+        <v>130</v>
+      </c>
+      <c r="C6">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>388</v>
+      </c>
+      <c r="B7">
+        <v>52</v>
+      </c>
+      <c r="C7">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>389</v>
+      </c>
+      <c r="B8">
+        <v>147</v>
+      </c>
+      <c r="C8">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>390</v>
+      </c>
+      <c r="B9">
+        <v>158</v>
+      </c>
+      <c r="C9">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>391</v>
+      </c>
+      <c r="B10">
+        <v>63</v>
+      </c>
+      <c r="C10">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>392</v>
+      </c>
+      <c r="B11">
+        <v>56</v>
+      </c>
+      <c r="C11">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>393</v>
       </c>
-      <c r="B2">
-        <v>74</v>
-      </c>
-      <c r="C2">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>394</v>
-      </c>
-      <c r="B3">
-        <v>145</v>
-      </c>
-      <c r="C3">
-        <v>15.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>395</v>
-      </c>
-      <c r="B4">
-        <v>79</v>
-      </c>
-      <c r="C4">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>396</v>
-      </c>
-      <c r="B5">
-        <v>140</v>
-      </c>
-      <c r="C5">
-        <v>14.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B6">
-        <v>115</v>
-      </c>
-      <c r="C6">
-        <v>12.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>398</v>
-      </c>
-      <c r="B7">
-        <v>46</v>
-      </c>
-      <c r="C7">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>399</v>
-      </c>
-      <c r="B8">
-        <v>126</v>
-      </c>
-      <c r="C8">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>400</v>
-      </c>
-      <c r="B9">
-        <v>125</v>
-      </c>
-      <c r="C9">
-        <v>13.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>401</v>
-      </c>
-      <c r="B10">
-        <v>43</v>
-      </c>
-      <c r="C10">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>402</v>
-      </c>
-      <c r="B11">
-        <v>24</v>
-      </c>
-      <c r="C11">
+      <c r="B12">
+        <v>29</v>
+      </c>
+      <c r="C12">
         <v>2.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>403</v>
-      </c>
-      <c r="B12">
-        <v>25</v>
-      </c>
-      <c r="C12">
-        <v>2.7</v>
       </c>
     </row>
   </sheetData>
@@ -4798,13 +4940,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="B1" t="s">
         <v>43</v>
@@ -4813,37 +4957,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2">
-        <v>701</v>
+        <v>838</v>
       </c>
       <c r="C2">
-        <v>74.400000000000006</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>71.400000000000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="B3">
-        <v>147</v>
+        <v>220</v>
       </c>
       <c r="C3">
-        <v>15.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>54</v>
       </c>
       <c r="B4">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>9.9</v>
       </c>
     </row>
   </sheetData>
@@ -4856,13 +5000,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="B1" t="s">
         <v>43</v>
@@ -4871,70 +5017,70 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="B2">
-        <v>450</v>
+        <v>566</v>
       </c>
       <c r="C2">
-        <v>54.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>56.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="B3">
-        <v>163</v>
+        <v>207</v>
       </c>
       <c r="C3">
-        <v>19.899999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="B4">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="C4">
-        <v>16.100000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C5">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="B6">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C6">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -4947,13 +5093,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="B1" t="s">
         <v>43</v>
@@ -4962,37 +5110,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
       <c r="B2">
-        <v>867</v>
+        <v>1058</v>
       </c>
       <c r="C2">
-        <v>93.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>91.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C3">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="B4">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C4">
-        <v>4.5</v>
+        <v>5.8</v>
       </c>
     </row>
   </sheetData>
@@ -5005,11 +5153,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -5017,7 +5167,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -5025,7 +5175,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -5033,7 +5183,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -5041,7 +5191,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -5049,7 +5199,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -5057,7 +5207,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -5065,7 +5215,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -5073,7 +5223,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -5081,7 +5231,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -5089,12 +5239,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>52</v>
       </c>
       <c r="B11">
-        <v>32.6</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -5109,9 +5259,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -5122,7 +5272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -5133,7 +5283,7 @@
         <v>79.7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -5144,7 +5294,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -5167,9 +5317,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -5180,7 +5330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -5191,7 +5341,7 @@
         <v>48.8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -5202,7 +5352,7 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -5213,7 +5363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -5224,7 +5374,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -5235,7 +5385,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -5258,9 +5408,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>63</v>
       </c>
@@ -5271,7 +5421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -5282,7 +5432,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -5293,7 +5443,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -5304,7 +5454,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -5315,7 +5465,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -5326,7 +5476,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>69</v>
       </c>
@@ -5337,7 +5487,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -5348,7 +5498,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -5359,7 +5509,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -5370,7 +5520,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>73</v>
       </c>
@@ -5381,7 +5531,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -5392,7 +5542,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -5403,7 +5553,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -5414,7 +5564,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -5425,7 +5575,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>78</v>
       </c>
@@ -5436,7 +5586,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>79</v>
       </c>
@@ -5447,7 +5597,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>80</v>
       </c>
@@ -5470,9 +5620,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>63</v>
       </c>
@@ -5483,7 +5633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -5494,7 +5644,7 @@
         <v>33.799999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -5505,7 +5655,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -5516,7 +5666,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -5527,7 +5677,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>85</v>
       </c>
@@ -5538,7 +5688,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>86</v>
       </c>
@@ -5561,9 +5711,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>63</v>
       </c>
@@ -5577,7 +5727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -5591,7 +5741,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -5605,7 +5755,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -5619,7 +5769,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -5633,7 +5783,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -5647,7 +5797,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -5661,7 +5811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -5675,7 +5825,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -5689,7 +5839,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -5703,7 +5853,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -5717,7 +5867,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -5731,7 +5881,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -5742,7 +5892,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -5756,7 +5906,7 @@
         <v>38.9</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -5770,7 +5920,7 @@
         <v>61.1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>69</v>
       </c>
@@ -5784,7 +5934,7 @@
         <v>68.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>69</v>
       </c>
@@ -5798,7 +5948,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>69</v>
       </c>
@@ -5812,7 +5962,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>69</v>
       </c>
@@ -5826,7 +5976,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>69</v>
       </c>
@@ -5840,7 +5990,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>69</v>
       </c>
@@ -5851,7 +6001,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -5865,7 +6015,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -5879,7 +6029,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -5893,7 +6043,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -5907,7 +6057,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>70</v>
       </c>
@@ -5921,7 +6071,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -5935,7 +6085,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>70</v>
       </c>
@@ -5949,7 +6099,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>70</v>
       </c>
@@ -5963,7 +6113,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>70</v>
       </c>
@@ -5977,7 +6127,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -5988,7 +6138,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -6002,7 +6152,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>67</v>
       </c>
@@ -6016,7 +6166,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>67</v>
       </c>
@@ -6030,7 +6180,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>67</v>
       </c>
@@ -6044,7 +6194,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>67</v>
       </c>
@@ -6058,7 +6208,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>67</v>
       </c>
@@ -6072,7 +6222,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -6086,7 +6236,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>67</v>
       </c>
@@ -6100,7 +6250,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>67</v>
       </c>
@@ -6111,7 +6261,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>64</v>
       </c>
@@ -6125,7 +6275,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>64</v>
       </c>
@@ -6139,7 +6289,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>64</v>
       </c>
@@ -6153,7 +6303,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>64</v>
       </c>
@@ -6167,7 +6317,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>64</v>
       </c>
@@ -6181,7 +6331,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>64</v>
       </c>
@@ -6195,7 +6345,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>64</v>
       </c>
@@ -6209,7 +6359,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>64</v>
       </c>
@@ -6223,7 +6373,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -6237,7 +6387,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>64</v>
       </c>
@@ -6251,7 +6401,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -6265,7 +6415,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>64</v>
       </c>
@@ -6279,7 +6429,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -6293,7 +6443,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -6304,7 +6454,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>79</v>
       </c>
@@ -6318,7 +6468,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>79</v>
       </c>
@@ -6332,7 +6482,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>79</v>
       </c>
@@ -6346,7 +6496,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>79</v>
       </c>
@@ -6360,7 +6510,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>79</v>
       </c>
@@ -6374,7 +6524,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>68</v>
       </c>
@@ -6388,7 +6538,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>68</v>
       </c>
@@ -6402,7 +6552,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -6416,7 +6566,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>68</v>
       </c>
@@ -6430,7 +6580,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -6444,7 +6594,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -6458,7 +6608,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -6472,7 +6622,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -6486,7 +6636,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -6500,7 +6650,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -6514,7 +6664,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -6528,7 +6678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -6542,7 +6692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>68</v>
       </c>
@@ -6556,7 +6706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>68</v>
       </c>
@@ -6570,7 +6720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>68</v>
       </c>
@@ -6581,7 +6731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>66</v>
       </c>
@@ -6595,7 +6745,7 @@
         <v>62.1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>66</v>
       </c>
@@ -6609,7 +6759,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>66</v>
       </c>
@@ -6623,7 +6773,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>66</v>
       </c>
@@ -6637,7 +6787,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>66</v>
       </c>
@@ -6651,7 +6801,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>66</v>
       </c>
@@ -6665,7 +6815,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>66</v>
       </c>
@@ -6679,7 +6829,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>75</v>
       </c>
@@ -6693,7 +6843,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>75</v>
       </c>
@@ -6707,7 +6857,7 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>75</v>
       </c>
@@ -6721,7 +6871,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>75</v>
       </c>
@@ -6735,7 +6885,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>75</v>
       </c>
@@ -6749,7 +6899,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>75</v>
       </c>
@@ -6763,7 +6913,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>75</v>
       </c>
@@ -6777,7 +6927,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>75</v>
       </c>
@@ -6791,7 +6941,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>71</v>
       </c>
@@ -6805,7 +6955,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>71</v>
       </c>
@@ -6819,7 +6969,7 @@
         <v>61.9</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>71</v>
       </c>
@@ -6833,7 +6983,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>71</v>
       </c>
@@ -6847,7 +6997,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>71</v>
       </c>
@@ -6861,7 +7011,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>71</v>
       </c>
@@ -6872,7 +7022,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>73</v>
       </c>
@@ -6886,7 +7036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>73</v>
       </c>
@@ -6900,7 +7050,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>73</v>
       </c>
@@ -6914,7 +7064,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>73</v>
       </c>
@@ -6928,7 +7078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>73</v>
       </c>
@@ -6942,7 +7092,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>73</v>
       </c>
@@ -6956,7 +7106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>73</v>
       </c>
@@ -6970,7 +7120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>74</v>
       </c>
@@ -6984,7 +7134,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>74</v>
       </c>
@@ -6998,7 +7148,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>74</v>
       </c>
@@ -7012,7 +7162,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>74</v>
       </c>
@@ -7026,7 +7176,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>74</v>
       </c>
@@ -7040,7 +7190,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>74</v>
       </c>
@@ -7054,7 +7204,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>74</v>
       </c>
@@ -7068,7 +7218,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>72</v>
       </c>
@@ -7082,7 +7232,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>72</v>
       </c>
@@ -7096,7 +7246,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>72</v>
       </c>
@@ -7110,7 +7260,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>72</v>
       </c>
@@ -7124,7 +7274,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>72</v>
       </c>
@@ -7138,7 +7288,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>72</v>
       </c>
@@ -7152,7 +7302,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>72</v>
       </c>
@@ -7166,7 +7316,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>72</v>
       </c>
@@ -7180,7 +7330,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>72</v>
       </c>
@@ -7194,7 +7344,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>72</v>
       </c>
@@ -7208,7 +7358,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>72</v>
       </c>
@@ -7222,7 +7372,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>72</v>
       </c>
@@ -7236,7 +7386,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>72</v>
       </c>
@@ -7250,7 +7400,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>78</v>
       </c>
@@ -7264,7 +7414,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>78</v>
       </c>
@@ -7278,7 +7428,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>78</v>
       </c>
@@ -7292,7 +7442,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>78</v>
       </c>
@@ -7306,7 +7456,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>78</v>
       </c>
@@ -7320,7 +7470,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>78</v>
       </c>
@@ -7334,7 +7484,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>80</v>
       </c>
@@ -7348,7 +7498,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>80</v>
       </c>
@@ -7362,7 +7512,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>80</v>
       </c>
@@ -7373,7 +7523,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>76</v>
       </c>
@@ -7387,7 +7537,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>76</v>
       </c>
@@ -7401,7 +7551,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>76</v>
       </c>
@@ -7415,7 +7565,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>76</v>
       </c>
@@ -7429,7 +7579,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>76</v>
       </c>
@@ -7443,7 +7593,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>76</v>
       </c>
